--- a/DCFLCBIT/Data/Config.xlsx
+++ b/DCFLCBIT/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCBIT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BA090-4F7E-48C0-B4BF-912704C9C9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1BF56-1106-4A1C-AE1D-7BB9405DBB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -146,17 +146,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://10.40.128.177:7001/core/login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dcflUrl</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://10.40.128.182:8080/core/login</t>
-  </si>
-  <si>
     <t>dcflUrlTest</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -170,6 +163,14 @@
   </si>
   <si>
     <t>dcflPassword</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://10.40.128.182:8080/core/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://10.40.128.177:7001/core/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -551,7 +552,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -648,31 +649,31 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
